--- a/corehq/apps/app_manager/tests/data/bulk_ui_translations.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_ui_translations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="20" windowWidth="25600" windowHeight="15620"/>
@@ -3504,9 +3504,6 @@
     <t>problem.report.prompt</t>
   </si>
   <si>
-    <t>Please enter the issue you'd like to report below</t>
-  </si>
-  <si>
     <t>profile.found</t>
   </si>
   <si>
@@ -4435,6 +4432,9 @@
   </si>
   <si>
     <t>wabble</t>
+  </si>
+  <si>
+    <t>Please enter the issue you'd like to report below. Please be sure to state where you encountered the problem, step-by-step instructions for reproducing the error, what exactly happened, and any text or error message that occurred.</t>
   </si>
 </sst>
 </file>
@@ -4768,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="H612" sqref="H612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4966,7 +4966,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -6601,7 +6601,7 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -6836,10 +6836,10 @@
         <v>248</v>
       </c>
       <c r="B122" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C122" t="s">
         <v>1470</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1471</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -15118,7 +15118,7 @@
         <v>6</v>
       </c>
       <c r="C609" t="s">
-        <v>1161</v>
+        <v>1471</v>
       </c>
       <c r="D609" t="s">
         <v>50</v>
@@ -15129,13 +15129,13 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B610" t="s">
+        <v>6</v>
+      </c>
+      <c r="C610" t="s">
         <v>1162</v>
-      </c>
-      <c r="B610" t="s">
-        <v>6</v>
-      </c>
-      <c r="C610" t="s">
-        <v>1163</v>
       </c>
       <c r="D610" t="s">
         <v>50</v>
@@ -15146,13 +15146,13 @@
     </row>
     <row r="611" spans="1:5">
       <c r="A611" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B611" t="s">
+        <v>6</v>
+      </c>
+      <c r="C611" t="s">
         <v>1164</v>
-      </c>
-      <c r="B611" t="s">
-        <v>6</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1165</v>
       </c>
       <c r="D611" t="s">
         <v>8</v>
@@ -15163,13 +15163,13 @@
     </row>
     <row r="612" spans="1:5">
       <c r="A612" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B612" t="s">
+        <v>6</v>
+      </c>
+      <c r="C612" t="s">
         <v>1166</v>
-      </c>
-      <c r="B612" t="s">
-        <v>6</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1167</v>
       </c>
       <c r="D612" t="s">
         <v>8</v>
@@ -15180,13 +15180,13 @@
     </row>
     <row r="613" spans="1:5">
       <c r="A613" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B613" t="s">
+        <v>6</v>
+      </c>
+      <c r="C613" t="s">
         <v>1168</v>
-      </c>
-      <c r="B613" t="s">
-        <v>6</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1169</v>
       </c>
       <c r="D613" t="s">
         <v>8</v>
@@ -15197,13 +15197,13 @@
     </row>
     <row r="614" spans="1:5">
       <c r="A614" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B614" t="s">
+        <v>6</v>
+      </c>
+      <c r="C614" t="s">
         <v>1170</v>
-      </c>
-      <c r="B614" t="s">
-        <v>6</v>
-      </c>
-      <c r="C614" t="s">
-        <v>1171</v>
       </c>
       <c r="D614" t="s">
         <v>8</v>
@@ -15214,13 +15214,13 @@
     </row>
     <row r="615" spans="1:5">
       <c r="A615" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B615" t="s">
+        <v>6</v>
+      </c>
+      <c r="C615" t="s">
         <v>1172</v>
-      </c>
-      <c r="B615" t="s">
-        <v>6</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1173</v>
       </c>
       <c r="D615" t="s">
         <v>8</v>
@@ -15231,13 +15231,13 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B616" t="s">
+        <v>6</v>
+      </c>
+      <c r="C616" t="s">
         <v>1174</v>
-      </c>
-      <c r="B616" t="s">
-        <v>6</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1175</v>
       </c>
       <c r="D616" t="s">
         <v>8</v>
@@ -15248,13 +15248,13 @@
     </row>
     <row r="617" spans="1:5">
       <c r="A617" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B617" t="s">
+        <v>6</v>
+      </c>
+      <c r="C617" t="s">
         <v>1176</v>
-      </c>
-      <c r="B617" t="s">
-        <v>6</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1177</v>
       </c>
       <c r="D617" t="s">
         <v>8</v>
@@ -15265,13 +15265,13 @@
     </row>
     <row r="618" spans="1:5">
       <c r="A618" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B618" t="s">
+        <v>6</v>
+      </c>
+      <c r="C618" t="s">
         <v>1178</v>
-      </c>
-      <c r="B618" t="s">
-        <v>6</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1179</v>
       </c>
       <c r="D618" t="s">
         <v>8</v>
@@ -15282,13 +15282,13 @@
     </row>
     <row r="619" spans="1:5">
       <c r="A619" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B619" t="s">
+        <v>6</v>
+      </c>
+      <c r="C619" t="s">
         <v>1180</v>
-      </c>
-      <c r="B619" t="s">
-        <v>6</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1181</v>
       </c>
       <c r="D619" t="s">
         <v>8</v>
@@ -15299,13 +15299,13 @@
     </row>
     <row r="620" spans="1:5">
       <c r="A620" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B620" t="s">
+        <v>6</v>
+      </c>
+      <c r="C620" t="s">
         <v>1182</v>
-      </c>
-      <c r="B620" t="s">
-        <v>6</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1183</v>
       </c>
       <c r="D620" t="s">
         <v>8</v>
@@ -15316,13 +15316,13 @@
     </row>
     <row r="621" spans="1:5">
       <c r="A621" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B621" t="s">
+        <v>6</v>
+      </c>
+      <c r="C621" t="s">
         <v>1184</v>
-      </c>
-      <c r="B621" t="s">
-        <v>6</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1185</v>
       </c>
       <c r="D621" t="s">
         <v>8</v>
@@ -15333,13 +15333,13 @@
     </row>
     <row r="622" spans="1:5">
       <c r="A622" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B622" t="s">
+        <v>6</v>
+      </c>
+      <c r="C622" t="s">
         <v>1186</v>
-      </c>
-      <c r="B622" t="s">
-        <v>6</v>
-      </c>
-      <c r="C622" t="s">
-        <v>1187</v>
       </c>
       <c r="D622" t="s">
         <v>8</v>
@@ -15350,13 +15350,13 @@
     </row>
     <row r="623" spans="1:5">
       <c r="A623" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B623" t="s">
+        <v>6</v>
+      </c>
+      <c r="C623" t="s">
         <v>1188</v>
-      </c>
-      <c r="B623" t="s">
-        <v>6</v>
-      </c>
-      <c r="C623" t="s">
-        <v>1189</v>
       </c>
       <c r="D623" t="s">
         <v>8</v>
@@ -15367,13 +15367,13 @@
     </row>
     <row r="624" spans="1:5">
       <c r="A624" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B624" t="s">
+        <v>6</v>
+      </c>
+      <c r="C624" t="s">
         <v>1190</v>
-      </c>
-      <c r="B624" t="s">
-        <v>6</v>
-      </c>
-      <c r="C624" t="s">
-        <v>1191</v>
       </c>
       <c r="D624" t="s">
         <v>8</v>
@@ -15384,13 +15384,13 @@
     </row>
     <row r="625" spans="1:5">
       <c r="A625" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B625" t="s">
+        <v>6</v>
+      </c>
+      <c r="C625" t="s">
         <v>1192</v>
-      </c>
-      <c r="B625" t="s">
-        <v>6</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1193</v>
       </c>
       <c r="D625" t="s">
         <v>8</v>
@@ -15401,13 +15401,13 @@
     </row>
     <row r="626" spans="1:5">
       <c r="A626" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B626" t="s">
+        <v>6</v>
+      </c>
+      <c r="C626" t="s">
         <v>1194</v>
-      </c>
-      <c r="B626" t="s">
-        <v>6</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1195</v>
       </c>
       <c r="D626" t="s">
         <v>8</v>
@@ -15418,13 +15418,13 @@
     </row>
     <row r="627" spans="1:5">
       <c r="A627" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B627" t="s">
+        <v>6</v>
+      </c>
+      <c r="C627" t="s">
         <v>1196</v>
-      </c>
-      <c r="B627" t="s">
-        <v>6</v>
-      </c>
-      <c r="C627" t="s">
-        <v>1197</v>
       </c>
       <c r="D627" t="s">
         <v>8</v>
@@ -15435,13 +15435,13 @@
     </row>
     <row r="628" spans="1:5">
       <c r="A628" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B628" t="s">
+        <v>6</v>
+      </c>
+      <c r="C628" t="s">
         <v>1198</v>
-      </c>
-      <c r="B628" t="s">
-        <v>6</v>
-      </c>
-      <c r="C628" t="s">
-        <v>1199</v>
       </c>
       <c r="D628" t="s">
         <v>8</v>
@@ -15452,13 +15452,13 @@
     </row>
     <row r="629" spans="1:5">
       <c r="A629" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B629" t="s">
+        <v>6</v>
+      </c>
+      <c r="C629" t="s">
         <v>1200</v>
-      </c>
-      <c r="B629" t="s">
-        <v>6</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1201</v>
       </c>
       <c r="D629" t="s">
         <v>8</v>
@@ -15469,13 +15469,13 @@
     </row>
     <row r="630" spans="1:5">
       <c r="A630" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B630" t="s">
+        <v>6</v>
+      </c>
+      <c r="C630" t="s">
         <v>1202</v>
-      </c>
-      <c r="B630" t="s">
-        <v>6</v>
-      </c>
-      <c r="C630" t="s">
-        <v>1203</v>
       </c>
       <c r="D630" t="s">
         <v>8</v>
@@ -15486,13 +15486,13 @@
     </row>
     <row r="631" spans="1:5">
       <c r="A631" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B631" t="s">
+        <v>6</v>
+      </c>
+      <c r="C631" t="s">
         <v>1204</v>
-      </c>
-      <c r="B631" t="s">
-        <v>6</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1205</v>
       </c>
       <c r="D631" t="s">
         <v>8</v>
@@ -15503,13 +15503,13 @@
     </row>
     <row r="632" spans="1:5">
       <c r="A632" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B632" t="s">
+        <v>6</v>
+      </c>
+      <c r="C632" t="s">
         <v>1206</v>
-      </c>
-      <c r="B632" t="s">
-        <v>6</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1207</v>
       </c>
       <c r="D632" t="s">
         <v>8</v>
@@ -15520,13 +15520,13 @@
     </row>
     <row r="633" spans="1:5">
       <c r="A633" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B633" t="s">
+        <v>6</v>
+      </c>
+      <c r="C633" t="s">
         <v>1208</v>
-      </c>
-      <c r="B633" t="s">
-        <v>6</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1209</v>
       </c>
       <c r="D633" t="s">
         <v>8</v>
@@ -15537,13 +15537,13 @@
     </row>
     <row r="634" spans="1:5">
       <c r="A634" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B634" t="s">
+        <v>6</v>
+      </c>
+      <c r="C634" t="s">
         <v>1210</v>
-      </c>
-      <c r="B634" t="s">
-        <v>6</v>
-      </c>
-      <c r="C634" t="s">
-        <v>1211</v>
       </c>
       <c r="D634" t="s">
         <v>8</v>
@@ -15554,13 +15554,13 @@
     </row>
     <row r="635" spans="1:5">
       <c r="A635" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B635" t="s">
+        <v>6</v>
+      </c>
+      <c r="C635" t="s">
         <v>1212</v>
-      </c>
-      <c r="B635" t="s">
-        <v>6</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1213</v>
       </c>
       <c r="D635" t="s">
         <v>8</v>
@@ -15571,13 +15571,13 @@
     </row>
     <row r="636" spans="1:5">
       <c r="A636" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B636" t="s">
+        <v>6</v>
+      </c>
+      <c r="C636" t="s">
         <v>1214</v>
-      </c>
-      <c r="B636" t="s">
-        <v>6</v>
-      </c>
-      <c r="C636" t="s">
-        <v>1215</v>
       </c>
       <c r="D636" t="s">
         <v>8</v>
@@ -15588,13 +15588,13 @@
     </row>
     <row r="637" spans="1:5">
       <c r="A637" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B637" t="s">
+        <v>6</v>
+      </c>
+      <c r="C637" t="s">
         <v>1216</v>
-      </c>
-      <c r="B637" t="s">
-        <v>6</v>
-      </c>
-      <c r="C637" t="s">
-        <v>1217</v>
       </c>
       <c r="D637" t="s">
         <v>8</v>
@@ -15605,13 +15605,13 @@
     </row>
     <row r="638" spans="1:5">
       <c r="A638" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B638" t="s">
+        <v>6</v>
+      </c>
+      <c r="C638" t="s">
         <v>1218</v>
-      </c>
-      <c r="B638" t="s">
-        <v>6</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1219</v>
       </c>
       <c r="D638" t="s">
         <v>8</v>
@@ -15622,7 +15622,7 @@
     </row>
     <row r="639" spans="1:5">
       <c r="A639" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B639" t="s">
         <v>6</v>
@@ -15639,13 +15639,13 @@
     </row>
     <row r="640" spans="1:5">
       <c r="A640" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B640" t="s">
+        <v>6</v>
+      </c>
+      <c r="C640" t="s">
         <v>1221</v>
-      </c>
-      <c r="B640" t="s">
-        <v>6</v>
-      </c>
-      <c r="C640" t="s">
-        <v>1222</v>
       </c>
       <c r="D640" t="s">
         <v>8</v>
@@ -15656,13 +15656,13 @@
     </row>
     <row r="641" spans="1:5">
       <c r="A641" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B641" t="s">
+        <v>6</v>
+      </c>
+      <c r="C641" t="s">
         <v>1223</v>
-      </c>
-      <c r="B641" t="s">
-        <v>6</v>
-      </c>
-      <c r="C641" t="s">
-        <v>1224</v>
       </c>
       <c r="D641" t="s">
         <v>8</v>
@@ -15673,13 +15673,13 @@
     </row>
     <row r="642" spans="1:5">
       <c r="A642" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B642" t="s">
+        <v>6</v>
+      </c>
+      <c r="C642" t="s">
         <v>1225</v>
-      </c>
-      <c r="B642" t="s">
-        <v>6</v>
-      </c>
-      <c r="C642" t="s">
-        <v>1226</v>
       </c>
       <c r="D642" t="s">
         <v>8</v>
@@ -15690,13 +15690,13 @@
     </row>
     <row r="643" spans="1:5">
       <c r="A643" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B643" t="s">
+        <v>6</v>
+      </c>
+      <c r="C643" t="s">
         <v>1227</v>
-      </c>
-      <c r="B643" t="s">
-        <v>6</v>
-      </c>
-      <c r="C643" t="s">
-        <v>1228</v>
       </c>
       <c r="D643" t="s">
         <v>8</v>
@@ -15707,13 +15707,13 @@
     </row>
     <row r="644" spans="1:5">
       <c r="A644" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B644" t="s">
+        <v>6</v>
+      </c>
+      <c r="C644" t="s">
         <v>1229</v>
-      </c>
-      <c r="B644" t="s">
-        <v>6</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1230</v>
       </c>
       <c r="D644" t="s">
         <v>8</v>
@@ -15724,13 +15724,13 @@
     </row>
     <row r="645" spans="1:5">
       <c r="A645" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B645" t="s">
+        <v>6</v>
+      </c>
+      <c r="C645" t="s">
         <v>1231</v>
-      </c>
-      <c r="B645" t="s">
-        <v>6</v>
-      </c>
-      <c r="C645" t="s">
-        <v>1232</v>
       </c>
       <c r="D645" t="s">
         <v>8</v>
@@ -15741,13 +15741,13 @@
     </row>
     <row r="646" spans="1:5">
       <c r="A646" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B646" t="s">
+        <v>6</v>
+      </c>
+      <c r="C646" t="s">
         <v>1233</v>
-      </c>
-      <c r="B646" t="s">
-        <v>6</v>
-      </c>
-      <c r="C646" t="s">
-        <v>1234</v>
       </c>
       <c r="D646" t="s">
         <v>8</v>
@@ -15758,13 +15758,13 @@
     </row>
     <row r="647" spans="1:5">
       <c r="A647" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B647" t="s">
+        <v>6</v>
+      </c>
+      <c r="C647" t="s">
         <v>1235</v>
-      </c>
-      <c r="B647" t="s">
-        <v>6</v>
-      </c>
-      <c r="C647" t="s">
-        <v>1236</v>
       </c>
       <c r="D647" t="s">
         <v>8</v>
@@ -15775,13 +15775,13 @@
     </row>
     <row r="648" spans="1:5">
       <c r="A648" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B648" t="s">
+        <v>6</v>
+      </c>
+      <c r="C648" t="s">
         <v>1237</v>
-      </c>
-      <c r="B648" t="s">
-        <v>6</v>
-      </c>
-      <c r="C648" t="s">
-        <v>1238</v>
       </c>
       <c r="D648" t="s">
         <v>8</v>
@@ -15792,13 +15792,13 @@
     </row>
     <row r="649" spans="1:5">
       <c r="A649" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B649" t="s">
+        <v>6</v>
+      </c>
+      <c r="C649" t="s">
         <v>1239</v>
-      </c>
-      <c r="B649" t="s">
-        <v>6</v>
-      </c>
-      <c r="C649" t="s">
-        <v>1240</v>
       </c>
       <c r="D649" t="s">
         <v>8</v>
@@ -15809,13 +15809,13 @@
     </row>
     <row r="650" spans="1:5">
       <c r="A650" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B650" t="s">
+        <v>6</v>
+      </c>
+      <c r="C650" t="s">
         <v>1241</v>
-      </c>
-      <c r="B650" t="s">
-        <v>6</v>
-      </c>
-      <c r="C650" t="s">
-        <v>1242</v>
       </c>
       <c r="D650" t="s">
         <v>8</v>
@@ -15826,7 +15826,7 @@
     </row>
     <row r="651" spans="1:5">
       <c r="A651" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B651" t="s">
         <v>6</v>
@@ -15843,13 +15843,13 @@
     </row>
     <row r="652" spans="1:5">
       <c r="A652" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B652" t="s">
+        <v>6</v>
+      </c>
+      <c r="C652" t="s">
         <v>1244</v>
-      </c>
-      <c r="B652" t="s">
-        <v>6</v>
-      </c>
-      <c r="C652" t="s">
-        <v>1245</v>
       </c>
       <c r="D652" t="s">
         <v>8</v>
@@ -15860,13 +15860,13 @@
     </row>
     <row r="653" spans="1:5">
       <c r="A653" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B653" t="s">
+        <v>6</v>
+      </c>
+      <c r="C653" t="s">
         <v>1246</v>
-      </c>
-      <c r="B653" t="s">
-        <v>6</v>
-      </c>
-      <c r="C653" t="s">
-        <v>1247</v>
       </c>
       <c r="D653" t="s">
         <v>8</v>
@@ -15877,13 +15877,13 @@
     </row>
     <row r="654" spans="1:5">
       <c r="A654" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B654" t="s">
+        <v>6</v>
+      </c>
+      <c r="C654" t="s">
         <v>1248</v>
-      </c>
-      <c r="B654" t="s">
-        <v>6</v>
-      </c>
-      <c r="C654" t="s">
-        <v>1249</v>
       </c>
       <c r="D654" t="s">
         <v>8</v>
@@ -15894,13 +15894,13 @@
     </row>
     <row r="655" spans="1:5">
       <c r="A655" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B655" t="s">
+        <v>6</v>
+      </c>
+      <c r="C655" t="s">
         <v>1250</v>
-      </c>
-      <c r="B655" t="s">
-        <v>6</v>
-      </c>
-      <c r="C655" t="s">
-        <v>1251</v>
       </c>
       <c r="D655" t="s">
         <v>8</v>
@@ -15911,13 +15911,13 @@
     </row>
     <row r="656" spans="1:5">
       <c r="A656" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B656" t="s">
+        <v>6</v>
+      </c>
+      <c r="C656" t="s">
         <v>1252</v>
-      </c>
-      <c r="B656" t="s">
-        <v>6</v>
-      </c>
-      <c r="C656" t="s">
-        <v>1253</v>
       </c>
       <c r="D656" t="s">
         <v>8</v>
@@ -15928,13 +15928,13 @@
     </row>
     <row r="657" spans="1:5">
       <c r="A657" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B657" t="s">
+        <v>6</v>
+      </c>
+      <c r="C657" t="s">
         <v>1254</v>
-      </c>
-      <c r="B657" t="s">
-        <v>6</v>
-      </c>
-      <c r="C657" t="s">
-        <v>1255</v>
       </c>
       <c r="D657" t="s">
         <v>8</v>
@@ -15945,13 +15945,13 @@
     </row>
     <row r="658" spans="1:5">
       <c r="A658" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B658" t="s">
+        <v>6</v>
+      </c>
+      <c r="C658" t="s">
         <v>1256</v>
-      </c>
-      <c r="B658" t="s">
-        <v>6</v>
-      </c>
-      <c r="C658" t="s">
-        <v>1257</v>
       </c>
       <c r="D658" t="s">
         <v>8</v>
@@ -15962,13 +15962,13 @@
     </row>
     <row r="659" spans="1:5">
       <c r="A659" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B659" t="s">
+        <v>6</v>
+      </c>
+      <c r="C659" t="s">
         <v>1258</v>
-      </c>
-      <c r="B659" t="s">
-        <v>6</v>
-      </c>
-      <c r="C659" t="s">
-        <v>1259</v>
       </c>
       <c r="D659" t="s">
         <v>8</v>
@@ -15979,13 +15979,13 @@
     </row>
     <row r="660" spans="1:5">
       <c r="A660" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B660" t="s">
+        <v>6</v>
+      </c>
+      <c r="C660" t="s">
         <v>1260</v>
-      </c>
-      <c r="B660" t="s">
-        <v>6</v>
-      </c>
-      <c r="C660" t="s">
-        <v>1261</v>
       </c>
       <c r="D660" t="s">
         <v>8</v>
@@ -15996,13 +15996,13 @@
     </row>
     <row r="661" spans="1:5">
       <c r="A661" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B661" t="s">
+        <v>6</v>
+      </c>
+      <c r="C661" t="s">
         <v>1262</v>
-      </c>
-      <c r="B661" t="s">
-        <v>6</v>
-      </c>
-      <c r="C661" t="s">
-        <v>1263</v>
       </c>
       <c r="D661" t="s">
         <v>8</v>
@@ -16013,13 +16013,13 @@
     </row>
     <row r="662" spans="1:5">
       <c r="A662" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B662" t="s">
+        <v>6</v>
+      </c>
+      <c r="C662" t="s">
         <v>1264</v>
-      </c>
-      <c r="B662" t="s">
-        <v>6</v>
-      </c>
-      <c r="C662" t="s">
-        <v>1265</v>
       </c>
       <c r="D662" t="s">
         <v>50</v>
@@ -16030,13 +16030,13 @@
     </row>
     <row r="663" spans="1:5">
       <c r="A663" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B663" t="s">
+        <v>6</v>
+      </c>
+      <c r="C663" t="s">
         <v>1266</v>
-      </c>
-      <c r="B663" t="s">
-        <v>6</v>
-      </c>
-      <c r="C663" t="s">
-        <v>1267</v>
       </c>
       <c r="D663" t="s">
         <v>50</v>
@@ -16047,7 +16047,7 @@
     </row>
     <row r="664" spans="1:5">
       <c r="A664" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B664" t="s">
         <v>6</v>
@@ -16064,13 +16064,13 @@
     </row>
     <row r="665" spans="1:5">
       <c r="A665" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B665" t="s">
+        <v>6</v>
+      </c>
+      <c r="C665" t="s">
         <v>1269</v>
-      </c>
-      <c r="B665" t="s">
-        <v>6</v>
-      </c>
-      <c r="C665" t="s">
-        <v>1270</v>
       </c>
       <c r="D665" t="s">
         <v>50</v>
@@ -16081,13 +16081,13 @@
     </row>
     <row r="666" spans="1:5">
       <c r="A666" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B666" t="s">
+        <v>6</v>
+      </c>
+      <c r="C666" t="s">
         <v>1271</v>
-      </c>
-      <c r="B666" t="s">
-        <v>6</v>
-      </c>
-      <c r="C666" t="s">
-        <v>1272</v>
       </c>
       <c r="D666" t="s">
         <v>50</v>
@@ -16098,13 +16098,13 @@
     </row>
     <row r="667" spans="1:5">
       <c r="A667" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B667" t="s">
+        <v>6</v>
+      </c>
+      <c r="C667" t="s">
         <v>1273</v>
-      </c>
-      <c r="B667" t="s">
-        <v>6</v>
-      </c>
-      <c r="C667" t="s">
-        <v>1274</v>
       </c>
       <c r="D667" t="s">
         <v>50</v>
@@ -16115,13 +16115,13 @@
     </row>
     <row r="668" spans="1:5">
       <c r="A668" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B668" t="s">
+        <v>6</v>
+      </c>
+      <c r="C668" t="s">
         <v>1275</v>
-      </c>
-      <c r="B668" t="s">
-        <v>6</v>
-      </c>
-      <c r="C668" t="s">
-        <v>1276</v>
       </c>
       <c r="D668" t="s">
         <v>50</v>
@@ -16132,13 +16132,13 @@
     </row>
     <row r="669" spans="1:5">
       <c r="A669" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B669" t="s">
+        <v>6</v>
+      </c>
+      <c r="C669" t="s">
         <v>1277</v>
-      </c>
-      <c r="B669" t="s">
-        <v>6</v>
-      </c>
-      <c r="C669" t="s">
-        <v>1278</v>
       </c>
       <c r="D669" t="s">
         <v>8</v>
@@ -16149,13 +16149,13 @@
     </row>
     <row r="670" spans="1:5">
       <c r="A670" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B670" t="s">
+        <v>6</v>
+      </c>
+      <c r="C670" t="s">
         <v>1279</v>
-      </c>
-      <c r="B670" t="s">
-        <v>6</v>
-      </c>
-      <c r="C670" t="s">
-        <v>1280</v>
       </c>
       <c r="D670" t="s">
         <v>8</v>
@@ -16166,13 +16166,13 @@
     </row>
     <row r="671" spans="1:5">
       <c r="A671" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B671" t="s">
+        <v>6</v>
+      </c>
+      <c r="C671" t="s">
         <v>1281</v>
-      </c>
-      <c r="B671" t="s">
-        <v>6</v>
-      </c>
-      <c r="C671" t="s">
-        <v>1282</v>
       </c>
       <c r="D671" t="s">
         <v>8</v>
@@ -16183,13 +16183,13 @@
     </row>
     <row r="672" spans="1:5">
       <c r="A672" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B672" t="s">
+        <v>6</v>
+      </c>
+      <c r="C672" t="s">
         <v>1283</v>
-      </c>
-      <c r="B672" t="s">
-        <v>6</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1284</v>
       </c>
       <c r="D672" t="s">
         <v>8</v>
@@ -16200,13 +16200,13 @@
     </row>
     <row r="673" spans="1:5">
       <c r="A673" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B673" t="s">
+        <v>6</v>
+      </c>
+      <c r="C673" t="s">
         <v>1285</v>
-      </c>
-      <c r="B673" t="s">
-        <v>6</v>
-      </c>
-      <c r="C673" t="s">
-        <v>1286</v>
       </c>
       <c r="D673" t="s">
         <v>8</v>
@@ -16217,13 +16217,13 @@
     </row>
     <row r="674" spans="1:5">
       <c r="A674" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B674" t="s">
+        <v>6</v>
+      </c>
+      <c r="C674" t="s">
         <v>1287</v>
-      </c>
-      <c r="B674" t="s">
-        <v>6</v>
-      </c>
-      <c r="C674" t="s">
-        <v>1288</v>
       </c>
       <c r="D674" t="s">
         <v>8</v>
@@ -16234,13 +16234,13 @@
     </row>
     <row r="675" spans="1:5">
       <c r="A675" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B675" t="s">
+        <v>6</v>
+      </c>
+      <c r="C675" t="s">
         <v>1289</v>
-      </c>
-      <c r="B675" t="s">
-        <v>6</v>
-      </c>
-      <c r="C675" t="s">
-        <v>1290</v>
       </c>
       <c r="D675" t="s">
         <v>8</v>
@@ -16251,13 +16251,13 @@
     </row>
     <row r="676" spans="1:5">
       <c r="A676" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B676" t="s">
+        <v>6</v>
+      </c>
+      <c r="C676" t="s">
         <v>1291</v>
-      </c>
-      <c r="B676" t="s">
-        <v>6</v>
-      </c>
-      <c r="C676" t="s">
-        <v>1292</v>
       </c>
       <c r="D676" t="s">
         <v>8</v>
@@ -16268,13 +16268,13 @@
     </row>
     <row r="677" spans="1:5">
       <c r="A677" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B677" t="s">
+        <v>6</v>
+      </c>
+      <c r="C677" t="s">
         <v>1293</v>
-      </c>
-      <c r="B677" t="s">
-        <v>6</v>
-      </c>
-      <c r="C677" t="s">
-        <v>1294</v>
       </c>
       <c r="D677" t="s">
         <v>8</v>
@@ -16285,13 +16285,13 @@
     </row>
     <row r="678" spans="1:5">
       <c r="A678" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B678" t="s">
+        <v>6</v>
+      </c>
+      <c r="C678" t="s">
         <v>1295</v>
-      </c>
-      <c r="B678" t="s">
-        <v>6</v>
-      </c>
-      <c r="C678" t="s">
-        <v>1296</v>
       </c>
       <c r="D678" t="s">
         <v>8</v>
@@ -16302,13 +16302,13 @@
     </row>
     <row r="679" spans="1:5">
       <c r="A679" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B679" t="s">
+        <v>6</v>
+      </c>
+      <c r="C679" t="s">
         <v>1297</v>
-      </c>
-      <c r="B679" t="s">
-        <v>6</v>
-      </c>
-      <c r="C679" t="s">
-        <v>1298</v>
       </c>
       <c r="D679" t="s">
         <v>8</v>
@@ -16319,13 +16319,13 @@
     </row>
     <row r="680" spans="1:5">
       <c r="A680" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B680" t="s">
+        <v>6</v>
+      </c>
+      <c r="C680" t="s">
         <v>1299</v>
-      </c>
-      <c r="B680" t="s">
-        <v>6</v>
-      </c>
-      <c r="C680" t="s">
-        <v>1300</v>
       </c>
       <c r="D680" t="s">
         <v>8</v>
@@ -16336,13 +16336,13 @@
     </row>
     <row r="681" spans="1:5">
       <c r="A681" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B681" t="s">
+        <v>6</v>
+      </c>
+      <c r="C681" t="s">
         <v>1301</v>
-      </c>
-      <c r="B681" t="s">
-        <v>6</v>
-      </c>
-      <c r="C681" t="s">
-        <v>1302</v>
       </c>
       <c r="D681" t="s">
         <v>8</v>
@@ -16353,13 +16353,13 @@
     </row>
     <row r="682" spans="1:5">
       <c r="A682" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B682" t="s">
+        <v>6</v>
+      </c>
+      <c r="C682" t="s">
         <v>1303</v>
-      </c>
-      <c r="B682" t="s">
-        <v>6</v>
-      </c>
-      <c r="C682" t="s">
-        <v>1304</v>
       </c>
       <c r="D682" t="s">
         <v>8</v>
@@ -16370,13 +16370,13 @@
     </row>
     <row r="683" spans="1:5">
       <c r="A683" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B683" t="s">
+        <v>6</v>
+      </c>
+      <c r="C683" t="s">
         <v>1305</v>
-      </c>
-      <c r="B683" t="s">
-        <v>6</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1306</v>
       </c>
       <c r="D683" t="s">
         <v>8</v>
@@ -16387,7 +16387,7 @@
     </row>
     <row r="684" spans="1:5">
       <c r="A684" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B684" t="s">
         <v>6</v>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="685" spans="1:5">
       <c r="A685" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B685" t="s">
         <v>6</v>
@@ -16421,13 +16421,13 @@
     </row>
     <row r="686" spans="1:5">
       <c r="A686" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B686" t="s">
+        <v>6</v>
+      </c>
+      <c r="C686" t="s">
         <v>1309</v>
-      </c>
-      <c r="B686" t="s">
-        <v>6</v>
-      </c>
-      <c r="C686" t="s">
-        <v>1310</v>
       </c>
       <c r="D686" t="s">
         <v>8</v>
@@ -16438,13 +16438,13 @@
     </row>
     <row r="687" spans="1:5">
       <c r="A687" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B687" t="s">
+        <v>6</v>
+      </c>
+      <c r="C687" t="s">
         <v>1311</v>
-      </c>
-      <c r="B687" t="s">
-        <v>6</v>
-      </c>
-      <c r="C687" t="s">
-        <v>1312</v>
       </c>
       <c r="D687" t="s">
         <v>8</v>
@@ -16455,13 +16455,13 @@
     </row>
     <row r="688" spans="1:5">
       <c r="A688" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B688" t="s">
+        <v>6</v>
+      </c>
+      <c r="C688" t="s">
         <v>1313</v>
-      </c>
-      <c r="B688" t="s">
-        <v>6</v>
-      </c>
-      <c r="C688" t="s">
-        <v>1314</v>
       </c>
       <c r="D688" t="s">
         <v>8</v>
@@ -16472,13 +16472,13 @@
     </row>
     <row r="689" spans="1:5">
       <c r="A689" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B689" t="s">
+        <v>6</v>
+      </c>
+      <c r="C689" t="s">
         <v>1315</v>
-      </c>
-      <c r="B689" t="s">
-        <v>6</v>
-      </c>
-      <c r="C689" t="s">
-        <v>1316</v>
       </c>
       <c r="D689" t="s">
         <v>8</v>
@@ -16489,7 +16489,7 @@
     </row>
     <row r="690" spans="1:5">
       <c r="A690" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B690" t="s">
         <v>6</v>
@@ -16506,13 +16506,13 @@
     </row>
     <row r="691" spans="1:5">
       <c r="A691" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B691" t="s">
+        <v>6</v>
+      </c>
+      <c r="C691" t="s">
         <v>1318</v>
-      </c>
-      <c r="B691" t="s">
-        <v>6</v>
-      </c>
-      <c r="C691" t="s">
-        <v>1319</v>
       </c>
       <c r="D691" t="s">
         <v>8</v>
@@ -16523,13 +16523,13 @@
     </row>
     <row r="692" spans="1:5">
       <c r="A692" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B692" t="s">
+        <v>6</v>
+      </c>
+      <c r="C692" t="s">
         <v>1320</v>
-      </c>
-      <c r="B692" t="s">
-        <v>6</v>
-      </c>
-      <c r="C692" t="s">
-        <v>1321</v>
       </c>
       <c r="D692" t="s">
         <v>8</v>
@@ -16540,13 +16540,13 @@
     </row>
     <row r="693" spans="1:5">
       <c r="A693" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B693" t="s">
+        <v>6</v>
+      </c>
+      <c r="C693" t="s">
         <v>1322</v>
-      </c>
-      <c r="B693" t="s">
-        <v>6</v>
-      </c>
-      <c r="C693" t="s">
-        <v>1323</v>
       </c>
       <c r="D693" t="s">
         <v>8</v>
@@ -16557,13 +16557,13 @@
     </row>
     <row r="694" spans="1:5">
       <c r="A694" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B694" t="s">
+        <v>6</v>
+      </c>
+      <c r="C694" t="s">
         <v>1324</v>
-      </c>
-      <c r="B694" t="s">
-        <v>6</v>
-      </c>
-      <c r="C694" t="s">
-        <v>1325</v>
       </c>
       <c r="D694" t="s">
         <v>8</v>
@@ -16574,13 +16574,13 @@
     </row>
     <row r="695" spans="1:5">
       <c r="A695" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B695" t="s">
+        <v>6</v>
+      </c>
+      <c r="C695" t="s">
         <v>1326</v>
-      </c>
-      <c r="B695" t="s">
-        <v>6</v>
-      </c>
-      <c r="C695" t="s">
-        <v>1327</v>
       </c>
       <c r="D695" t="s">
         <v>8</v>
@@ -16591,13 +16591,13 @@
     </row>
     <row r="696" spans="1:5">
       <c r="A696" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B696" t="s">
+        <v>6</v>
+      </c>
+      <c r="C696" t="s">
         <v>1328</v>
-      </c>
-      <c r="B696" t="s">
-        <v>6</v>
-      </c>
-      <c r="C696" t="s">
-        <v>1329</v>
       </c>
       <c r="D696" t="s">
         <v>8</v>
@@ -16608,13 +16608,13 @@
     </row>
     <row r="697" spans="1:5">
       <c r="A697" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B697" t="s">
+        <v>6</v>
+      </c>
+      <c r="C697" t="s">
         <v>1330</v>
-      </c>
-      <c r="B697" t="s">
-        <v>6</v>
-      </c>
-      <c r="C697" t="s">
-        <v>1331</v>
       </c>
       <c r="D697" t="s">
         <v>8</v>
@@ -16625,13 +16625,13 @@
     </row>
     <row r="698" spans="1:5">
       <c r="A698" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B698" t="s">
+        <v>6</v>
+      </c>
+      <c r="C698" t="s">
         <v>1332</v>
-      </c>
-      <c r="B698" t="s">
-        <v>6</v>
-      </c>
-      <c r="C698" t="s">
-        <v>1333</v>
       </c>
       <c r="D698" t="s">
         <v>8</v>
@@ -16642,13 +16642,13 @@
     </row>
     <row r="699" spans="1:5">
       <c r="A699" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B699" t="s">
+        <v>6</v>
+      </c>
+      <c r="C699" t="s">
         <v>1334</v>
-      </c>
-      <c r="B699" t="s">
-        <v>6</v>
-      </c>
-      <c r="C699" t="s">
-        <v>1335</v>
       </c>
       <c r="D699" t="s">
         <v>8</v>
@@ -16659,13 +16659,13 @@
     </row>
     <row r="700" spans="1:5">
       <c r="A700" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B700" t="s">
+        <v>6</v>
+      </c>
+      <c r="C700" t="s">
         <v>1336</v>
-      </c>
-      <c r="B700" t="s">
-        <v>6</v>
-      </c>
-      <c r="C700" t="s">
-        <v>1337</v>
       </c>
       <c r="D700" t="s">
         <v>50</v>
@@ -16676,13 +16676,13 @@
     </row>
     <row r="701" spans="1:5">
       <c r="A701" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B701" t="s">
+        <v>6</v>
+      </c>
+      <c r="C701" t="s">
         <v>1338</v>
-      </c>
-      <c r="B701" t="s">
-        <v>6</v>
-      </c>
-      <c r="C701" t="s">
-        <v>1339</v>
       </c>
       <c r="D701" t="s">
         <v>50</v>
@@ -16693,13 +16693,13 @@
     </row>
     <row r="702" spans="1:5">
       <c r="A702" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B702" t="s">
+        <v>6</v>
+      </c>
+      <c r="C702" t="s">
         <v>1340</v>
-      </c>
-      <c r="B702" t="s">
-        <v>6</v>
-      </c>
-      <c r="C702" t="s">
-        <v>1341</v>
       </c>
       <c r="D702" t="s">
         <v>50</v>
@@ -16710,13 +16710,13 @@
     </row>
     <row r="703" spans="1:5">
       <c r="A703" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B703" t="s">
+        <v>6</v>
+      </c>
+      <c r="C703" t="s">
         <v>1342</v>
-      </c>
-      <c r="B703" t="s">
-        <v>6</v>
-      </c>
-      <c r="C703" t="s">
-        <v>1343</v>
       </c>
       <c r="D703" t="s">
         <v>50</v>
@@ -16727,13 +16727,13 @@
     </row>
     <row r="704" spans="1:5">
       <c r="A704" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B704" t="s">
+        <v>6</v>
+      </c>
+      <c r="C704" t="s">
         <v>1344</v>
-      </c>
-      <c r="B704" t="s">
-        <v>6</v>
-      </c>
-      <c r="C704" t="s">
-        <v>1345</v>
       </c>
       <c r="D704" t="s">
         <v>50</v>
@@ -16744,13 +16744,13 @@
     </row>
     <row r="705" spans="1:5">
       <c r="A705" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B705" t="s">
+        <v>6</v>
+      </c>
+      <c r="C705" t="s">
         <v>1346</v>
-      </c>
-      <c r="B705" t="s">
-        <v>6</v>
-      </c>
-      <c r="C705" t="s">
-        <v>1347</v>
       </c>
       <c r="D705" t="s">
         <v>50</v>
@@ -16761,13 +16761,13 @@
     </row>
     <row r="706" spans="1:5">
       <c r="A706" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B706" t="s">
+        <v>6</v>
+      </c>
+      <c r="C706" t="s">
         <v>1348</v>
-      </c>
-      <c r="B706" t="s">
-        <v>6</v>
-      </c>
-      <c r="C706" t="s">
-        <v>1349</v>
       </c>
       <c r="D706" t="s">
         <v>50</v>
@@ -16778,13 +16778,13 @@
     </row>
     <row r="707" spans="1:5">
       <c r="A707" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B707" t="s">
+        <v>6</v>
+      </c>
+      <c r="C707" t="s">
         <v>1350</v>
-      </c>
-      <c r="B707" t="s">
-        <v>6</v>
-      </c>
-      <c r="C707" t="s">
-        <v>1351</v>
       </c>
       <c r="D707" t="s">
         <v>50</v>
@@ -16795,13 +16795,13 @@
     </row>
     <row r="708" spans="1:5">
       <c r="A708" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B708" t="s">
+        <v>6</v>
+      </c>
+      <c r="C708" t="s">
         <v>1352</v>
-      </c>
-      <c r="B708" t="s">
-        <v>6</v>
-      </c>
-      <c r="C708" t="s">
-        <v>1353</v>
       </c>
       <c r="D708" t="s">
         <v>50</v>
@@ -16812,13 +16812,13 @@
     </row>
     <row r="709" spans="1:5">
       <c r="A709" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B709" t="s">
+        <v>6</v>
+      </c>
+      <c r="C709" t="s">
         <v>1354</v>
-      </c>
-      <c r="B709" t="s">
-        <v>6</v>
-      </c>
-      <c r="C709" t="s">
-        <v>1355</v>
       </c>
       <c r="D709" t="s">
         <v>50</v>
@@ -16829,13 +16829,13 @@
     </row>
     <row r="710" spans="1:5">
       <c r="A710" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B710" t="s">
+        <v>6</v>
+      </c>
+      <c r="C710" t="s">
         <v>1356</v>
-      </c>
-      <c r="B710" t="s">
-        <v>6</v>
-      </c>
-      <c r="C710" t="s">
-        <v>1357</v>
       </c>
       <c r="D710" t="s">
         <v>50</v>
@@ -16846,13 +16846,13 @@
     </row>
     <row r="711" spans="1:5">
       <c r="A711" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B711" t="s">
+        <v>6</v>
+      </c>
+      <c r="C711" t="s">
         <v>1358</v>
-      </c>
-      <c r="B711" t="s">
-        <v>6</v>
-      </c>
-      <c r="C711" t="s">
-        <v>1359</v>
       </c>
       <c r="D711" t="s">
         <v>50</v>
@@ -16863,13 +16863,13 @@
     </row>
     <row r="712" spans="1:5">
       <c r="A712" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B712" t="s">
+        <v>6</v>
+      </c>
+      <c r="C712" t="s">
         <v>1360</v>
-      </c>
-      <c r="B712" t="s">
-        <v>6</v>
-      </c>
-      <c r="C712" t="s">
-        <v>1361</v>
       </c>
       <c r="D712" t="s">
         <v>50</v>
@@ -16880,13 +16880,13 @@
     </row>
     <row r="713" spans="1:5">
       <c r="A713" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B713" t="s">
+        <v>6</v>
+      </c>
+      <c r="C713" t="s">
         <v>1362</v>
-      </c>
-      <c r="B713" t="s">
-        <v>6</v>
-      </c>
-      <c r="C713" t="s">
-        <v>1363</v>
       </c>
       <c r="D713" t="s">
         <v>8</v>
@@ -16897,13 +16897,13 @@
     </row>
     <row r="714" spans="1:5">
       <c r="A714" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B714" t="s">
+        <v>6</v>
+      </c>
+      <c r="C714" t="s">
         <v>1364</v>
-      </c>
-      <c r="B714" t="s">
-        <v>6</v>
-      </c>
-      <c r="C714" t="s">
-        <v>1365</v>
       </c>
       <c r="D714" t="s">
         <v>8</v>
@@ -16914,13 +16914,13 @@
     </row>
     <row r="715" spans="1:5">
       <c r="A715" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B715" t="s">
+        <v>6</v>
+      </c>
+      <c r="C715" t="s">
         <v>1366</v>
-      </c>
-      <c r="B715" t="s">
-        <v>6</v>
-      </c>
-      <c r="C715" t="s">
-        <v>1367</v>
       </c>
       <c r="D715" t="s">
         <v>8</v>
@@ -16931,13 +16931,13 @@
     </row>
     <row r="716" spans="1:5">
       <c r="A716" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B716" t="s">
+        <v>6</v>
+      </c>
+      <c r="C716" t="s">
         <v>1368</v>
-      </c>
-      <c r="B716" t="s">
-        <v>6</v>
-      </c>
-      <c r="C716" t="s">
-        <v>1369</v>
       </c>
       <c r="D716" t="s">
         <v>50</v>
@@ -16948,13 +16948,13 @@
     </row>
     <row r="717" spans="1:5">
       <c r="A717" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B717" t="s">
+        <v>6</v>
+      </c>
+      <c r="C717" t="s">
         <v>1370</v>
-      </c>
-      <c r="B717" t="s">
-        <v>6</v>
-      </c>
-      <c r="C717" t="s">
-        <v>1371</v>
       </c>
       <c r="D717" t="s">
         <v>50</v>
@@ -16965,13 +16965,13 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B718" t="s">
+        <v>6</v>
+      </c>
+      <c r="C718" t="s">
         <v>1372</v>
-      </c>
-      <c r="B718" t="s">
-        <v>6</v>
-      </c>
-      <c r="C718" t="s">
-        <v>1373</v>
       </c>
       <c r="D718" t="s">
         <v>8</v>
@@ -16982,13 +16982,13 @@
     </row>
     <row r="719" spans="1:5">
       <c r="A719" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B719" t="s">
+        <v>6</v>
+      </c>
+      <c r="C719" t="s">
         <v>1374</v>
-      </c>
-      <c r="B719" t="s">
-        <v>6</v>
-      </c>
-      <c r="C719" t="s">
-        <v>1375</v>
       </c>
       <c r="D719" t="s">
         <v>50</v>
@@ -16999,13 +16999,13 @@
     </row>
     <row r="720" spans="1:5">
       <c r="A720" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B720" t="s">
+        <v>6</v>
+      </c>
+      <c r="C720" t="s">
         <v>1376</v>
-      </c>
-      <c r="B720" t="s">
-        <v>6</v>
-      </c>
-      <c r="C720" t="s">
-        <v>1377</v>
       </c>
       <c r="D720" t="s">
         <v>50</v>
@@ -17016,13 +17016,13 @@
     </row>
     <row r="721" spans="1:5">
       <c r="A721" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B721" t="s">
+        <v>6</v>
+      </c>
+      <c r="C721" t="s">
         <v>1378</v>
-      </c>
-      <c r="B721" t="s">
-        <v>6</v>
-      </c>
-      <c r="C721" t="s">
-        <v>1379</v>
       </c>
       <c r="D721" t="s">
         <v>50</v>
@@ -17033,13 +17033,13 @@
     </row>
     <row r="722" spans="1:5">
       <c r="A722" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B722" t="s">
+        <v>6</v>
+      </c>
+      <c r="C722" t="s">
         <v>1380</v>
-      </c>
-      <c r="B722" t="s">
-        <v>6</v>
-      </c>
-      <c r="C722" t="s">
-        <v>1381</v>
       </c>
       <c r="D722" t="s">
         <v>8</v>
@@ -17050,13 +17050,13 @@
     </row>
     <row r="723" spans="1:5">
       <c r="A723" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B723" t="s">
+        <v>6</v>
+      </c>
+      <c r="C723" t="s">
         <v>1382</v>
-      </c>
-      <c r="B723" t="s">
-        <v>6</v>
-      </c>
-      <c r="C723" t="s">
-        <v>1383</v>
       </c>
       <c r="D723" t="s">
         <v>50</v>
@@ -17067,13 +17067,13 @@
     </row>
     <row r="724" spans="1:5">
       <c r="A724" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B724" t="s">
+        <v>6</v>
+      </c>
+      <c r="C724" t="s">
         <v>1384</v>
-      </c>
-      <c r="B724" t="s">
-        <v>6</v>
-      </c>
-      <c r="C724" t="s">
-        <v>1385</v>
       </c>
       <c r="D724" t="s">
         <v>8</v>
@@ -17084,13 +17084,13 @@
     </row>
     <row r="725" spans="1:5">
       <c r="A725" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B725" t="s">
+        <v>6</v>
+      </c>
+      <c r="C725" t="s">
         <v>1386</v>
-      </c>
-      <c r="B725" t="s">
-        <v>6</v>
-      </c>
-      <c r="C725" t="s">
-        <v>1387</v>
       </c>
       <c r="D725" t="s">
         <v>8</v>
@@ -17101,13 +17101,13 @@
     </row>
     <row r="726" spans="1:5">
       <c r="A726" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B726" t="s">
+        <v>6</v>
+      </c>
+      <c r="C726" t="s">
         <v>1388</v>
-      </c>
-      <c r="B726" t="s">
-        <v>6</v>
-      </c>
-      <c r="C726" t="s">
-        <v>1389</v>
       </c>
       <c r="D726" t="s">
         <v>8</v>
@@ -17118,13 +17118,13 @@
     </row>
     <row r="727" spans="1:5">
       <c r="A727" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B727" t="s">
+        <v>6</v>
+      </c>
+      <c r="C727" t="s">
         <v>1390</v>
-      </c>
-      <c r="B727" t="s">
-        <v>6</v>
-      </c>
-      <c r="C727" t="s">
-        <v>1391</v>
       </c>
       <c r="D727" t="s">
         <v>8</v>
@@ -17135,13 +17135,13 @@
     </row>
     <row r="728" spans="1:5">
       <c r="A728" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B728" t="s">
+        <v>6</v>
+      </c>
+      <c r="C728" t="s">
         <v>1392</v>
-      </c>
-      <c r="B728" t="s">
-        <v>6</v>
-      </c>
-      <c r="C728" t="s">
-        <v>1393</v>
       </c>
       <c r="D728" t="s">
         <v>8</v>
@@ -17152,13 +17152,13 @@
     </row>
     <row r="729" spans="1:5">
       <c r="A729" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B729" t="s">
+        <v>6</v>
+      </c>
+      <c r="C729" t="s">
         <v>1394</v>
-      </c>
-      <c r="B729" t="s">
-        <v>6</v>
-      </c>
-      <c r="C729" t="s">
-        <v>1395</v>
       </c>
       <c r="D729" t="s">
         <v>50</v>
@@ -17169,13 +17169,13 @@
     </row>
     <row r="730" spans="1:5">
       <c r="A730" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B730" t="s">
+        <v>6</v>
+      </c>
+      <c r="C730" t="s">
         <v>1396</v>
-      </c>
-      <c r="B730" t="s">
-        <v>6</v>
-      </c>
-      <c r="C730" t="s">
-        <v>1397</v>
       </c>
       <c r="D730" t="s">
         <v>50</v>
@@ -17186,13 +17186,13 @@
     </row>
     <row r="731" spans="1:5">
       <c r="A731" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B731" t="s">
+        <v>6</v>
+      </c>
+      <c r="C731" t="s">
         <v>1398</v>
-      </c>
-      <c r="B731" t="s">
-        <v>6</v>
-      </c>
-      <c r="C731" t="s">
-        <v>1399</v>
       </c>
       <c r="D731" t="s">
         <v>50</v>
@@ -17203,13 +17203,13 @@
     </row>
     <row r="732" spans="1:5">
       <c r="A732" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B732" t="s">
+        <v>6</v>
+      </c>
+      <c r="C732" t="s">
         <v>1400</v>
-      </c>
-      <c r="B732" t="s">
-        <v>6</v>
-      </c>
-      <c r="C732" t="s">
-        <v>1401</v>
       </c>
       <c r="D732" t="s">
         <v>50</v>
@@ -17220,13 +17220,13 @@
     </row>
     <row r="733" spans="1:5">
       <c r="A733" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B733" t="s">
+        <v>6</v>
+      </c>
+      <c r="C733" t="s">
         <v>1402</v>
-      </c>
-      <c r="B733" t="s">
-        <v>6</v>
-      </c>
-      <c r="C733" t="s">
-        <v>1403</v>
       </c>
       <c r="D733" t="s">
         <v>50</v>
@@ -17237,13 +17237,13 @@
     </row>
     <row r="734" spans="1:5">
       <c r="A734" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B734" t="s">
+        <v>6</v>
+      </c>
+      <c r="C734" t="s">
         <v>1404</v>
-      </c>
-      <c r="B734" t="s">
-        <v>6</v>
-      </c>
-      <c r="C734" t="s">
-        <v>1405</v>
       </c>
       <c r="D734" t="s">
         <v>50</v>
@@ -17254,13 +17254,13 @@
     </row>
     <row r="735" spans="1:5">
       <c r="A735" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B735" t="s">
+        <v>6</v>
+      </c>
+      <c r="C735" t="s">
         <v>1406</v>
-      </c>
-      <c r="B735" t="s">
-        <v>6</v>
-      </c>
-      <c r="C735" t="s">
-        <v>1407</v>
       </c>
       <c r="D735" t="s">
         <v>50</v>
@@ -17271,13 +17271,13 @@
     </row>
     <row r="736" spans="1:5">
       <c r="A736" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B736" t="s">
+        <v>6</v>
+      </c>
+      <c r="C736" t="s">
         <v>1408</v>
-      </c>
-      <c r="B736" t="s">
-        <v>6</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1409</v>
       </c>
       <c r="D736" t="s">
         <v>50</v>
@@ -17288,13 +17288,13 @@
     </row>
     <row r="737" spans="1:5">
       <c r="A737" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B737" t="s">
+        <v>6</v>
+      </c>
+      <c r="C737" t="s">
         <v>1410</v>
-      </c>
-      <c r="B737" t="s">
-        <v>6</v>
-      </c>
-      <c r="C737" t="s">
-        <v>1411</v>
       </c>
       <c r="D737" t="s">
         <v>50</v>
@@ -17305,7 +17305,7 @@
     </row>
     <row r="738" spans="1:5">
       <c r="A738" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B738" t="s">
         <v>6</v>
@@ -17322,13 +17322,13 @@
     </row>
     <row r="739" spans="1:5">
       <c r="A739" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B739" t="s">
+        <v>6</v>
+      </c>
+      <c r="C739" t="s">
         <v>1413</v>
-      </c>
-      <c r="B739" t="s">
-        <v>6</v>
-      </c>
-      <c r="C739" t="s">
-        <v>1414</v>
       </c>
       <c r="D739" t="s">
         <v>8</v>
@@ -17339,7 +17339,7 @@
     </row>
     <row r="740" spans="1:5">
       <c r="A740" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B740" t="s">
         <v>6</v>
@@ -17356,13 +17356,13 @@
     </row>
     <row r="741" spans="1:5">
       <c r="A741" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B741" t="s">
+        <v>6</v>
+      </c>
+      <c r="C741" t="s">
         <v>1416</v>
-      </c>
-      <c r="B741" t="s">
-        <v>6</v>
-      </c>
-      <c r="C741" t="s">
-        <v>1417</v>
       </c>
       <c r="D741" t="s">
         <v>8</v>
@@ -17373,13 +17373,13 @@
     </row>
     <row r="742" spans="1:5">
       <c r="A742" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B742" t="s">
+        <v>6</v>
+      </c>
+      <c r="C742" t="s">
         <v>1418</v>
-      </c>
-      <c r="B742" t="s">
-        <v>6</v>
-      </c>
-      <c r="C742" t="s">
-        <v>1419</v>
       </c>
       <c r="D742" t="s">
         <v>8</v>
@@ -17390,13 +17390,13 @@
     </row>
     <row r="743" spans="1:5">
       <c r="A743" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B743" t="s">
         <v>6</v>
       </c>
       <c r="C743" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D743" t="s">
         <v>8</v>
@@ -17407,13 +17407,13 @@
     </row>
     <row r="744" spans="1:5">
       <c r="A744" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B744" t="s">
         <v>6</v>
       </c>
       <c r="C744" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D744" t="s">
         <v>8</v>
@@ -17424,7 +17424,7 @@
     </row>
     <row r="745" spans="1:5">
       <c r="A745" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B745" t="s">
         <v>6</v>
@@ -17441,13 +17441,13 @@
     </row>
     <row r="746" spans="1:5">
       <c r="A746" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B746" t="s">
+        <v>6</v>
+      </c>
+      <c r="C746" t="s">
         <v>1423</v>
-      </c>
-      <c r="B746" t="s">
-        <v>6</v>
-      </c>
-      <c r="C746" t="s">
-        <v>1424</v>
       </c>
       <c r="D746" t="s">
         <v>8</v>
@@ -17458,13 +17458,13 @@
     </row>
     <row r="747" spans="1:5">
       <c r="A747" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B747" t="s">
+        <v>6</v>
+      </c>
+      <c r="C747" t="s">
         <v>1425</v>
-      </c>
-      <c r="B747" t="s">
-        <v>6</v>
-      </c>
-      <c r="C747" t="s">
-        <v>1426</v>
       </c>
       <c r="D747" t="s">
         <v>8</v>
@@ -17475,13 +17475,13 @@
     </row>
     <row r="748" spans="1:5">
       <c r="A748" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B748" t="s">
+        <v>6</v>
+      </c>
+      <c r="C748" t="s">
         <v>1427</v>
-      </c>
-      <c r="B748" t="s">
-        <v>6</v>
-      </c>
-      <c r="C748" t="s">
-        <v>1428</v>
       </c>
       <c r="D748" t="s">
         <v>8</v>
@@ -17492,13 +17492,13 @@
     </row>
     <row r="749" spans="1:5">
       <c r="A749" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B749" t="s">
+        <v>6</v>
+      </c>
+      <c r="C749" t="s">
         <v>1429</v>
-      </c>
-      <c r="B749" t="s">
-        <v>6</v>
-      </c>
-      <c r="C749" t="s">
-        <v>1430</v>
       </c>
       <c r="D749" t="s">
         <v>8</v>
@@ -17509,13 +17509,13 @@
     </row>
     <row r="750" spans="1:5">
       <c r="A750" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B750" t="s">
+        <v>6</v>
+      </c>
+      <c r="C750" t="s">
         <v>1431</v>
-      </c>
-      <c r="B750" t="s">
-        <v>6</v>
-      </c>
-      <c r="C750" t="s">
-        <v>1432</v>
       </c>
       <c r="D750" t="s">
         <v>8</v>
@@ -17526,13 +17526,13 @@
     </row>
     <row r="751" spans="1:5">
       <c r="A751" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B751" t="s">
+        <v>6</v>
+      </c>
+      <c r="C751" t="s">
         <v>1433</v>
-      </c>
-      <c r="B751" t="s">
-        <v>6</v>
-      </c>
-      <c r="C751" t="s">
-        <v>1434</v>
       </c>
       <c r="D751" t="s">
         <v>8</v>
@@ -17543,13 +17543,13 @@
     </row>
     <row r="752" spans="1:5">
       <c r="A752" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B752" t="s">
+        <v>6</v>
+      </c>
+      <c r="C752" t="s">
         <v>1435</v>
-      </c>
-      <c r="B752" t="s">
-        <v>6</v>
-      </c>
-      <c r="C752" t="s">
-        <v>1436</v>
       </c>
       <c r="D752" t="s">
         <v>8</v>
@@ -17560,13 +17560,13 @@
     </row>
     <row r="753" spans="1:5">
       <c r="A753" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B753" t="s">
+        <v>6</v>
+      </c>
+      <c r="C753" t="s">
         <v>1437</v>
-      </c>
-      <c r="B753" t="s">
-        <v>6</v>
-      </c>
-      <c r="C753" t="s">
-        <v>1438</v>
       </c>
       <c r="D753" t="s">
         <v>50</v>
@@ -17577,13 +17577,13 @@
     </row>
     <row r="754" spans="1:5">
       <c r="A754" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B754" t="s">
+        <v>6</v>
+      </c>
+      <c r="C754" t="s">
         <v>1439</v>
-      </c>
-      <c r="B754" t="s">
-        <v>6</v>
-      </c>
-      <c r="C754" t="s">
-        <v>1440</v>
       </c>
       <c r="D754" t="s">
         <v>50</v>
@@ -17594,13 +17594,13 @@
     </row>
     <row r="755" spans="1:5">
       <c r="A755" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B755" t="s">
+        <v>6</v>
+      </c>
+      <c r="C755" t="s">
         <v>1441</v>
-      </c>
-      <c r="B755" t="s">
-        <v>6</v>
-      </c>
-      <c r="C755" t="s">
-        <v>1442</v>
       </c>
       <c r="D755" t="s">
         <v>50</v>
@@ -17611,13 +17611,13 @@
     </row>
     <row r="756" spans="1:5">
       <c r="A756" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B756" t="s">
+        <v>6</v>
+      </c>
+      <c r="C756" t="s">
         <v>1443</v>
-      </c>
-      <c r="B756" t="s">
-        <v>6</v>
-      </c>
-      <c r="C756" t="s">
-        <v>1444</v>
       </c>
       <c r="D756" t="s">
         <v>50</v>
@@ -17628,13 +17628,13 @@
     </row>
     <row r="757" spans="1:5">
       <c r="A757" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B757" t="s">
+        <v>6</v>
+      </c>
+      <c r="C757" t="s">
         <v>1445</v>
-      </c>
-      <c r="B757" t="s">
-        <v>6</v>
-      </c>
-      <c r="C757" t="s">
-        <v>1446</v>
       </c>
       <c r="D757" t="s">
         <v>50</v>
@@ -17645,13 +17645,13 @@
     </row>
     <row r="758" spans="1:5">
       <c r="A758" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B758" t="s">
+        <v>6</v>
+      </c>
+      <c r="C758" t="s">
         <v>1447</v>
-      </c>
-      <c r="B758" t="s">
-        <v>6</v>
-      </c>
-      <c r="C758" t="s">
-        <v>1448</v>
       </c>
       <c r="D758" t="s">
         <v>50</v>
@@ -17662,13 +17662,13 @@
     </row>
     <row r="759" spans="1:5">
       <c r="A759" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B759" t="s">
+        <v>6</v>
+      </c>
+      <c r="C759" t="s">
         <v>1449</v>
-      </c>
-      <c r="B759" t="s">
-        <v>6</v>
-      </c>
-      <c r="C759" t="s">
-        <v>1450</v>
       </c>
       <c r="D759" t="s">
         <v>50</v>
@@ -17679,13 +17679,13 @@
     </row>
     <row r="760" spans="1:5">
       <c r="A760" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B760" t="s">
+        <v>6</v>
+      </c>
+      <c r="C760" t="s">
         <v>1451</v>
-      </c>
-      <c r="B760" t="s">
-        <v>6</v>
-      </c>
-      <c r="C760" t="s">
-        <v>1452</v>
       </c>
       <c r="D760" t="s">
         <v>50</v>
@@ -17696,13 +17696,13 @@
     </row>
     <row r="761" spans="1:5">
       <c r="A761" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B761" t="s">
+        <v>6</v>
+      </c>
+      <c r="C761" t="s">
         <v>1453</v>
-      </c>
-      <c r="B761" t="s">
-        <v>6</v>
-      </c>
-      <c r="C761" t="s">
-        <v>1454</v>
       </c>
       <c r="D761" t="s">
         <v>50</v>
@@ -17713,13 +17713,13 @@
     </row>
     <row r="762" spans="1:5">
       <c r="A762" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B762" t="s">
+        <v>6</v>
+      </c>
+      <c r="C762" t="s">
         <v>1455</v>
-      </c>
-      <c r="B762" t="s">
-        <v>6</v>
-      </c>
-      <c r="C762" t="s">
-        <v>1456</v>
       </c>
       <c r="D762" t="s">
         <v>8</v>
@@ -17730,13 +17730,13 @@
     </row>
     <row r="763" spans="1:5">
       <c r="A763" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B763" t="s">
+        <v>6</v>
+      </c>
+      <c r="C763" t="s">
         <v>1457</v>
-      </c>
-      <c r="B763" t="s">
-        <v>6</v>
-      </c>
-      <c r="C763" t="s">
-        <v>1458</v>
       </c>
       <c r="D763" t="s">
         <v>8</v>
@@ -17747,13 +17747,13 @@
     </row>
     <row r="764" spans="1:5">
       <c r="A764" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B764" t="s">
+        <v>6</v>
+      </c>
+      <c r="C764" t="s">
         <v>1459</v>
-      </c>
-      <c r="B764" t="s">
-        <v>6</v>
-      </c>
-      <c r="C764" t="s">
-        <v>1460</v>
       </c>
       <c r="D764" t="s">
         <v>8</v>
@@ -17764,13 +17764,13 @@
     </row>
     <row r="765" spans="1:5">
       <c r="A765" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B765" t="s">
+        <v>6</v>
+      </c>
+      <c r="C765" t="s">
         <v>1461</v>
-      </c>
-      <c r="B765" t="s">
-        <v>6</v>
-      </c>
-      <c r="C765" t="s">
-        <v>1462</v>
       </c>
       <c r="D765" t="s">
         <v>8</v>
@@ -17781,13 +17781,13 @@
     </row>
     <row r="766" spans="1:5">
       <c r="A766" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B766" t="s">
+        <v>6</v>
+      </c>
+      <c r="C766" t="s">
         <v>1463</v>
-      </c>
-      <c r="B766" t="s">
-        <v>6</v>
-      </c>
-      <c r="C766" t="s">
-        <v>1464</v>
       </c>
       <c r="D766" t="s">
         <v>8</v>
@@ -17798,7 +17798,7 @@
     </row>
     <row r="767" spans="1:5">
       <c r="A767" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B767" t="s">
         <v>6</v>
@@ -17815,13 +17815,13 @@
     </row>
     <row r="768" spans="1:5">
       <c r="A768" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B768" t="s">
+        <v>6</v>
+      </c>
+      <c r="C768" t="s">
         <v>1466</v>
-      </c>
-      <c r="B768" t="s">
-        <v>6</v>
-      </c>
-      <c r="C768" t="s">
-        <v>1467</v>
       </c>
       <c r="D768" t="s">
         <v>8</v>
